--- a/_Robbie_Robot_Shop_Scrum.xlsx
+++ b/_Robbie_Robot_Shop_Scrum.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryhuerta/Dropbox/xfiles/CSE-1325/Homework_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryhuerta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3220" windowWidth="19960" windowHeight="13200" activeTab="2"/>
+    <workbookView xWindow="19220" yWindow="2560" windowWidth="19960" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3 Backlog " sheetId="8" r:id="rId2"/>
     <sheet name="Sprint 2 Backlog " sheetId="6" r:id="rId3"/>
+    <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="154">
   <si>
     <t>Product Name:</t>
   </si>
@@ -312,9 +316,6 @@
     <t>MH</t>
   </si>
   <si>
-    <t>NS</t>
-  </si>
-  <si>
     <t>RP</t>
   </si>
   <si>
@@ -411,7 +412,88 @@
     <t xml:space="preserve">Create Main Menu </t>
   </si>
   <si>
-    <t>Started</t>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>List Robot Parts</t>
+  </si>
+  <si>
+    <t>Create SaleAssoc</t>
+  </si>
+  <si>
+    <t>Create Customer Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix circulator depencies </t>
+  </si>
+  <si>
+    <t>Circulaator depencies between order, salesAssoc, order</t>
+  </si>
+  <si>
+    <t>source file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In report menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Report Menu </t>
+  </si>
+  <si>
+    <t>in View.h and View.cpp</t>
+  </si>
+  <si>
+    <t>put order vector in shop</t>
+  </si>
+  <si>
+    <t>put salesAssoc vector in shop</t>
+  </si>
+  <si>
+    <t>put Customer vector in shop</t>
+  </si>
+  <si>
+    <t>shop.cpp</t>
+  </si>
+  <si>
+    <t>chop.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put orders in create menu </t>
+  </si>
+  <si>
+    <t>Add orders to menu with view,cpp</t>
+  </si>
+  <si>
+    <t>List Robot Models</t>
+  </si>
+  <si>
+    <t>Report salesAssocs</t>
+  </si>
+  <si>
+    <t>In report menu from view.cpp</t>
+  </si>
+  <si>
+    <t>Report Customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Orders  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix reporting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print out all objects </t>
+  </si>
+  <si>
+    <t>Turn in sprint</t>
   </si>
 </sst>
 </file>
@@ -422,7 +504,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy&quot; &quot;hh&quot;:&quot;mm&quot; &quot;AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +548,18 @@
       <color rgb="FFFFFFFF"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -490,7 +584,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -500,6 +594,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -515,9 +613,13 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -593,10 +695,10 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,11 +714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2135009408"/>
-        <c:axId val="-2135017264"/>
+        <c:axId val="-2109341344"/>
+        <c:axId val="-2109346848"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2135017264"/>
+        <c:axId val="-2109346848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,12 +773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135009408"/>
+        <c:crossAx val="-2109341344"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2135009408"/>
+        <c:axId val="-2109341344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135017264"/>
+        <c:crossAx val="-2109346848"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -760,7 +862,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -778,6 +887,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -801,30 +911,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 Backlog'!$B$6:$B$13</c:f>
+              <c:f>'Sprint 3 Backlog '!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>17.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -843,11 +953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2134961296"/>
-        <c:axId val="-2134966736"/>
+        <c:axId val="-2080553632"/>
+        <c:axId val="-2080559072"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2134966736"/>
+        <c:axId val="-2080559072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,6 +988,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -901,12 +1012,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134961296"/>
+        <c:crossAx val="-2080553632"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2134961296"/>
+        <c:axId val="-2080553632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,6 +1039,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -950,7 +1062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134966736"/>
+        <c:crossAx val="-2080559072"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,11 +1192,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2135517216"/>
-        <c:axId val="-2135511792"/>
+        <c:axId val="-2105161408"/>
+        <c:axId val="2122991232"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2135511792"/>
+        <c:axId val="2122991232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,12 +1251,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135517216"/>
+        <c:crossAx val="-2105161408"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2135517216"/>
+        <c:axId val="-2105161408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1301,239 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135511792"/>
+        <c:crossAx val="2122991232"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2123013008"/>
+        <c:axId val="2123016752"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="2123016752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123013008"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2123013008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123016752"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1577,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6491F5D-D3FD-4B7E-9994-DCFF3305E754}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6491F5D-D3FD-4B7E-9994-DCFF3305E754}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,11 +1608,13 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB4F7B5-E4CF-4454-90F7-20979DAACF98}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB4F7B5-E4CF-4454-90F7-20979DAACF98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1295,13 +1641,44 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFB4F7B5-E4CF-4454-90F7-20979DAACF98}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB4F7B5-E4CF-4454-90F7-20979DAACF98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB4F7B5-E4CF-4454-90F7-20979DAACF98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1617,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1638,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -24230,8 +24607,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="1">
-        <f>B22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -25260,8 +25636,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="1">
-        <f>B23</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -29390,13 +29765,13 @@
     </row>
     <row r="29" spans="1:1023" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -29415,11 +29790,14 @@
       </c>
     </row>
     <row r="30" spans="1:1023" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -29438,11 +29816,14 @@
       </c>
     </row>
     <row r="31" spans="1:1023" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -29461,11 +29842,14 @@
       </c>
     </row>
     <row r="32" spans="1:1023" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -29732,6 +30116,887 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42657</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7">
+        <v>31705</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42663</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7">
+        <v>42649</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7">
+        <v>31698</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42663</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -29973,10 +31238,10 @@
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -29987,10 +31252,10 @@
         <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -30001,10 +31266,10 @@
         <v>93</v>
       </c>
       <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
         <v>98</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -30015,10 +31280,10 @@
         <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -30029,10 +31294,10 @@
         <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -30043,10 +31308,10 @@
         <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -30057,10 +31322,10 @@
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -30071,10 +31336,10 @@
         <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -30085,10 +31350,10 @@
         <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -30099,10 +31364,10 @@
         <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -30113,10 +31378,10 @@
         <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -30127,10 +31392,10 @@
         <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -30141,10 +31406,10 @@
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -30155,10 +31420,10 @@
         <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -30169,10 +31434,10 @@
         <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -30183,10 +31448,10 @@
         <v>93</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -30197,420 +31462,10 @@
         <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="48" customWidth="1"/>
-    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="7">
-        <v>42649</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="7">
-        <v>31698</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="7">
-        <v>42663</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
